--- a/data/pca/factorExposure/factorExposure_2009-05-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01703305536911933</v>
+        <v>-0.01675083959908288</v>
       </c>
       <c r="C2">
-        <v>-0.001995754500071691</v>
+        <v>0.001250397483228825</v>
       </c>
       <c r="D2">
-        <v>0.008123535686635619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.00902860568018864</v>
+      </c>
+      <c r="E2">
+        <v>-0.001462742043746946</v>
+      </c>
+      <c r="F2">
+        <v>0.01422059099762195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08766591680744179</v>
+        <v>-0.09090520552679408</v>
       </c>
       <c r="C4">
-        <v>-0.0204701085973024</v>
+        <v>0.01573120739347899</v>
       </c>
       <c r="D4">
-        <v>0.08030754138687375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08380462188460724</v>
+      </c>
+      <c r="E4">
+        <v>-0.02868783100176506</v>
+      </c>
+      <c r="F4">
+        <v>-0.03286436534931009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-3.552462147886565e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-6.627917943524309e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001960455832731965</v>
+      </c>
+      <c r="E5">
+        <v>-0.0001090985196570136</v>
+      </c>
+      <c r="F5">
+        <v>5.776873978339034e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1565695302056724</v>
+        <v>-0.1644543191334068</v>
       </c>
       <c r="C6">
-        <v>-0.03394894896258131</v>
+        <v>0.0323520627670601</v>
       </c>
       <c r="D6">
-        <v>-0.02977785270975357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02054868236025047</v>
+      </c>
+      <c r="E6">
+        <v>-0.01143382993133808</v>
+      </c>
+      <c r="F6">
+        <v>-0.0419598918010805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05690346542730625</v>
+        <v>-0.06007570470551021</v>
       </c>
       <c r="C7">
-        <v>-0.00183224747895509</v>
+        <v>-0.001529602426769827</v>
       </c>
       <c r="D7">
-        <v>0.04663268846956099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05257463389084895</v>
+      </c>
+      <c r="E7">
+        <v>-0.01268013427878425</v>
+      </c>
+      <c r="F7">
+        <v>-0.04880605047335997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05947769468859876</v>
+        <v>-0.05563584312564345</v>
       </c>
       <c r="C8">
-        <v>0.009597131412056949</v>
+        <v>-0.01185635901327197</v>
       </c>
       <c r="D8">
-        <v>0.02590850629382418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03071612798953469</v>
+      </c>
+      <c r="E8">
+        <v>-0.01655100989259373</v>
+      </c>
+      <c r="F8">
+        <v>0.02760524602092157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06841507835736174</v>
+        <v>-0.07077314549817915</v>
       </c>
       <c r="C9">
-        <v>-0.0162483067982255</v>
+        <v>0.01119530930549814</v>
       </c>
       <c r="D9">
-        <v>0.08349106235546358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08721320128546693</v>
+      </c>
+      <c r="E9">
+        <v>-0.02503037053676328</v>
+      </c>
+      <c r="F9">
+        <v>-0.04921809241828656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08762564412434569</v>
+        <v>-0.08787545455411437</v>
       </c>
       <c r="C10">
-        <v>-0.01926042374097208</v>
+        <v>0.02340115452640855</v>
       </c>
       <c r="D10">
-        <v>-0.168724034100703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1588828559883677</v>
+      </c>
+      <c r="E10">
+        <v>0.0324920770997181</v>
+      </c>
+      <c r="F10">
+        <v>0.05841129254459246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08843550554311351</v>
+        <v>-0.08540979163745807</v>
       </c>
       <c r="C11">
-        <v>-0.01752309218713383</v>
+        <v>0.01204963476988402</v>
       </c>
       <c r="D11">
-        <v>0.1146743472463342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1199043434009189</v>
+      </c>
+      <c r="E11">
+        <v>-0.05083527949106957</v>
+      </c>
+      <c r="F11">
+        <v>-0.02548097319458362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09591786439630537</v>
+        <v>-0.09005475175616708</v>
       </c>
       <c r="C12">
-        <v>-0.01631160497082223</v>
+        <v>0.009953481161086674</v>
       </c>
       <c r="D12">
-        <v>0.1214156050131411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1355310337552811</v>
+      </c>
+      <c r="E12">
+        <v>-0.05343023392261947</v>
+      </c>
+      <c r="F12">
+        <v>-0.03183593930409562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04506103172310659</v>
+        <v>-0.04443989648270183</v>
       </c>
       <c r="C13">
-        <v>-0.007120062437459834</v>
+        <v>0.003530929617544502</v>
       </c>
       <c r="D13">
-        <v>0.04870123927869097</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05531832148424046</v>
+      </c>
+      <c r="E13">
+        <v>-0.001132544771699736</v>
+      </c>
+      <c r="F13">
+        <v>-0.005607792635603615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01856984342439566</v>
+        <v>-0.02208725582357846</v>
       </c>
       <c r="C14">
-        <v>-0.01490259315608802</v>
+        <v>0.01368463804520328</v>
       </c>
       <c r="D14">
-        <v>0.03244111753558304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03367825323264326</v>
+      </c>
+      <c r="E14">
+        <v>-0.02121018441603523</v>
+      </c>
+      <c r="F14">
+        <v>-0.0133064143149491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03465658050665764</v>
+        <v>-0.0348222784756857</v>
       </c>
       <c r="C15">
-        <v>-0.008118426632376502</v>
+        <v>0.006260924346515229</v>
       </c>
       <c r="D15">
-        <v>0.04823625151217406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04782394394944162</v>
+      </c>
+      <c r="E15">
+        <v>-0.007512670013935462</v>
+      </c>
+      <c r="F15">
+        <v>-0.02995301894591942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07170671018950747</v>
+        <v>-0.06976893080149461</v>
       </c>
       <c r="C16">
-        <v>-0.007158951365106483</v>
+        <v>0.001544341406402801</v>
       </c>
       <c r="D16">
-        <v>0.1175439021240624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1304461581531368</v>
+      </c>
+      <c r="E16">
+        <v>-0.06500380378877077</v>
+      </c>
+      <c r="F16">
+        <v>-0.02836631746462325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001493857042252795</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0004322862782143453</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002436052751769515</v>
+      </c>
+      <c r="E17">
+        <v>-0.001922502645242369</v>
+      </c>
+      <c r="F17">
+        <v>0.00184633418698757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02599834827541735</v>
+        <v>-0.04438617208230045</v>
       </c>
       <c r="C18">
-        <v>0.001242624513950192</v>
+        <v>-0.0009712965827640816</v>
       </c>
       <c r="D18">
-        <v>0.02333457217396074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01823418337606771</v>
+      </c>
+      <c r="E18">
+        <v>0.004601943832788887</v>
+      </c>
+      <c r="F18">
+        <v>0.009336151691923871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06391052479974106</v>
+        <v>-0.06268823346990231</v>
       </c>
       <c r="C20">
-        <v>-0.006081211889994991</v>
+        <v>0.002115655190528287</v>
       </c>
       <c r="D20">
-        <v>0.07445994110906132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0796504007730769</v>
+      </c>
+      <c r="E20">
+        <v>-0.06211827184638778</v>
+      </c>
+      <c r="F20">
+        <v>-0.02997164023261065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04079740005824381</v>
+        <v>-0.04308037309146753</v>
       </c>
       <c r="C21">
-        <v>-0.01043142840826115</v>
+        <v>0.007722224999814616</v>
       </c>
       <c r="D21">
-        <v>0.03633635973518132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03709654654286302</v>
+      </c>
+      <c r="E21">
+        <v>-0.003417132337012495</v>
+      </c>
+      <c r="F21">
+        <v>0.02391305795034405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04073034918003535</v>
+        <v>-0.04263276998277628</v>
       </c>
       <c r="C22">
-        <v>-0.001746076283506287</v>
+        <v>0.001295201668600964</v>
       </c>
       <c r="D22">
-        <v>0.003600979211088067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.009994270677995203</v>
+      </c>
+      <c r="E22">
+        <v>-0.03451555066335203</v>
+      </c>
+      <c r="F22">
+        <v>0.05295560072553175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04069271416384038</v>
+        <v>-0.04260129809091418</v>
       </c>
       <c r="C23">
-        <v>-0.001733282807509943</v>
+        <v>0.001283059636653127</v>
       </c>
       <c r="D23">
-        <v>0.003619657902455949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01000823519920729</v>
+      </c>
+      <c r="E23">
+        <v>-0.0345439864511734</v>
+      </c>
+      <c r="F23">
+        <v>0.05301114990880954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07957775492165835</v>
+        <v>-0.07607501253701292</v>
       </c>
       <c r="C24">
-        <v>-0.008108985865087856</v>
+        <v>0.002519251741401928</v>
       </c>
       <c r="D24">
-        <v>0.118896232056147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1238277092086794</v>
+      </c>
+      <c r="E24">
+        <v>-0.04976724591619634</v>
+      </c>
+      <c r="F24">
+        <v>-0.03189782271198884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08417634155518323</v>
+        <v>-0.08085465102791273</v>
       </c>
       <c r="C25">
-        <v>-0.01043553914211705</v>
+        <v>0.005419802002764007</v>
       </c>
       <c r="D25">
-        <v>0.1060780020832217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1114144194481846</v>
+      </c>
+      <c r="E25">
+        <v>-0.03507374903996642</v>
+      </c>
+      <c r="F25">
+        <v>-0.02873192656205174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05757749649203737</v>
+        <v>-0.06125811781728394</v>
       </c>
       <c r="C26">
-        <v>-0.01875055141115944</v>
+        <v>0.01543833716694131</v>
       </c>
       <c r="D26">
-        <v>0.04038428187572347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0490399653513976</v>
+      </c>
+      <c r="E26">
+        <v>-0.02950752044634533</v>
+      </c>
+      <c r="F26">
+        <v>0.005094647514837236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1396097694727685</v>
+        <v>-0.1475185332916598</v>
       </c>
       <c r="C28">
-        <v>-0.02017412593261024</v>
+        <v>0.02724405486088474</v>
       </c>
       <c r="D28">
-        <v>-0.2603660897054787</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2557354733109355</v>
+      </c>
+      <c r="E28">
+        <v>0.06407636706480745</v>
+      </c>
+      <c r="F28">
+        <v>-0.005145410537151487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02523995436191331</v>
+        <v>-0.02771777680436547</v>
       </c>
       <c r="C29">
-        <v>-0.009719641699230357</v>
+        <v>0.009004968567301722</v>
       </c>
       <c r="D29">
-        <v>0.03087973090090364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03098706938488439</v>
+      </c>
+      <c r="E29">
+        <v>-0.01663796160517163</v>
+      </c>
+      <c r="F29">
+        <v>0.01342500186835504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05671835786207458</v>
+        <v>-0.05423392842169159</v>
       </c>
       <c r="C30">
-        <v>-0.007731474459045311</v>
+        <v>0.002751630209776473</v>
       </c>
       <c r="D30">
-        <v>0.07845590922354959</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08695675242632288</v>
+      </c>
+      <c r="E30">
+        <v>-0.01392856253290359</v>
+      </c>
+      <c r="F30">
+        <v>-0.08207349136232321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05081924295244309</v>
+        <v>-0.05130867989126301</v>
       </c>
       <c r="C31">
-        <v>-0.01835898805528128</v>
+        <v>0.01672719698518876</v>
       </c>
       <c r="D31">
-        <v>0.02360409653495701</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02663283252023899</v>
+      </c>
+      <c r="E31">
+        <v>-0.02817993924547783</v>
+      </c>
+      <c r="F31">
+        <v>0.0007375048981576404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04689496297612775</v>
+        <v>-0.05116140321413369</v>
       </c>
       <c r="C32">
-        <v>-0.002707495881475334</v>
+        <v>-0.000898752010979185</v>
       </c>
       <c r="D32">
-        <v>0.0308243995971792</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0356969235800096</v>
+      </c>
+      <c r="E32">
+        <v>-0.03099481540306178</v>
+      </c>
+      <c r="F32">
+        <v>-0.002044769286699931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08848687556551246</v>
+        <v>-0.08883341850750098</v>
       </c>
       <c r="C33">
-        <v>-0.01398506977067352</v>
+        <v>0.00803032996286043</v>
       </c>
       <c r="D33">
-        <v>0.09307792861131933</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1054984061973926</v>
+      </c>
+      <c r="E33">
+        <v>-0.05066468423777584</v>
+      </c>
+      <c r="F33">
+        <v>-0.04398592185375105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06759026576400763</v>
+        <v>-0.06597016079633601</v>
       </c>
       <c r="C34">
-        <v>-0.01597032010279029</v>
+        <v>0.01094680895605384</v>
       </c>
       <c r="D34">
-        <v>0.1003544905356426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1122147458925832</v>
+      </c>
+      <c r="E34">
+        <v>-0.03851022384549846</v>
+      </c>
+      <c r="F34">
+        <v>-0.03700866773828065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02628959224478368</v>
+        <v>-0.02763658793694876</v>
       </c>
       <c r="C35">
-        <v>-0.004475740775195675</v>
+        <v>0.003912631464293093</v>
       </c>
       <c r="D35">
-        <v>0.008329954625017334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01151733624803571</v>
+      </c>
+      <c r="E35">
+        <v>-0.01729029476288621</v>
+      </c>
+      <c r="F35">
+        <v>0.0003195253900339888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02368868597407334</v>
+        <v>-0.02824087815253687</v>
       </c>
       <c r="C36">
-        <v>-0.008611899515440634</v>
+        <v>0.007367954833813915</v>
       </c>
       <c r="D36">
-        <v>0.03934281656373152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04060154992516793</v>
+      </c>
+      <c r="E36">
+        <v>-0.01848656771436714</v>
+      </c>
+      <c r="F36">
+        <v>-0.01549154694316988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002486116130038225</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007448898102492693</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003108079987612509</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004954800630405835</v>
+      </c>
+      <c r="F37">
+        <v>0.00132202184387255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1072249657940922</v>
+        <v>-0.09674152617588017</v>
       </c>
       <c r="C39">
-        <v>-0.0232930595960074</v>
+        <v>0.01649864711655513</v>
       </c>
       <c r="D39">
-        <v>0.1517823904201812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1530749640403357</v>
+      </c>
+      <c r="E39">
+        <v>-0.06559598591214942</v>
+      </c>
+      <c r="F39">
+        <v>-0.02154608308084988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04038716316707232</v>
+        <v>-0.04589267113382171</v>
       </c>
       <c r="C40">
-        <v>-0.01051420135824396</v>
+        <v>0.009289103148220399</v>
       </c>
       <c r="D40">
-        <v>0.0267927402375951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0333237355899404</v>
+      </c>
+      <c r="E40">
+        <v>0.0002354012123241235</v>
+      </c>
+      <c r="F40">
+        <v>0.01443702869195636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02527191328566843</v>
+        <v>-0.02779108667239188</v>
       </c>
       <c r="C41">
-        <v>-0.008065059752514888</v>
+        <v>0.007316993962977804</v>
       </c>
       <c r="D41">
-        <v>0.008843074228398459</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01079282180273955</v>
+      </c>
+      <c r="E41">
+        <v>-0.01288645344406114</v>
+      </c>
+      <c r="F41">
+        <v>0.006847789342558364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0412294528199019</v>
+        <v>-0.03981290403411086</v>
       </c>
       <c r="C43">
-        <v>-0.008820051917867945</v>
+        <v>0.008052187456192697</v>
       </c>
       <c r="D43">
-        <v>0.01929055781910621</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02123473127247398</v>
+      </c>
+      <c r="E43">
+        <v>-0.02717571147047251</v>
+      </c>
+      <c r="F43">
+        <v>0.01523992330203758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05945547022647803</v>
+        <v>-0.07118274287779516</v>
       </c>
       <c r="C44">
-        <v>-0.0221315068185614</v>
+        <v>0.01850469076714848</v>
       </c>
       <c r="D44">
-        <v>0.09112484136215505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08947508025774192</v>
+      </c>
+      <c r="E44">
+        <v>-0.05766708525611829</v>
+      </c>
+      <c r="F44">
+        <v>-0.1694256096380765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-3.120979774427269e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-1.484468962143985e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.010690176515807e-06</v>
+      </c>
+      <c r="E45">
+        <v>6.088854075968211e-05</v>
+      </c>
+      <c r="F45">
+        <v>4.628366107022772e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02051459030114738</v>
+        <v>-0.02413916904656878</v>
       </c>
       <c r="C46">
-        <v>-0.004597323383917813</v>
+        <v>0.003604254382043821</v>
       </c>
       <c r="D46">
-        <v>0.01093470416225342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01428197059694577</v>
+      </c>
+      <c r="E46">
+        <v>-0.03239852379130852</v>
+      </c>
+      <c r="F46">
+        <v>0.005298212591794904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05389525548620474</v>
+        <v>-0.05322910915213301</v>
       </c>
       <c r="C47">
-        <v>-0.006605297722148873</v>
+        <v>0.005261178163538617</v>
       </c>
       <c r="D47">
-        <v>0.007476918871608732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01204247381937198</v>
+      </c>
+      <c r="E47">
+        <v>-0.02517285537388582</v>
+      </c>
+      <c r="F47">
+        <v>0.0300978060295045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04803324892599809</v>
+        <v>-0.05144449208420182</v>
       </c>
       <c r="C48">
-        <v>-0.005727668164447629</v>
+        <v>0.002952149926984292</v>
       </c>
       <c r="D48">
-        <v>0.05007568522067912</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05280346772245208</v>
+      </c>
+      <c r="E48">
+        <v>0.003902905819165468</v>
+      </c>
+      <c r="F48">
+        <v>-0.01446168111026568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1996424021561252</v>
+        <v>-0.2010434202409436</v>
       </c>
       <c r="C49">
-        <v>-0.02693232880148345</v>
+        <v>0.0239301530767367</v>
       </c>
       <c r="D49">
-        <v>-0.008955546491726848</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002720929165372508</v>
+      </c>
+      <c r="E49">
+        <v>-0.02031851633948299</v>
+      </c>
+      <c r="F49">
+        <v>-0.05015204079834293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04965583177531057</v>
+        <v>-0.052063627120548</v>
       </c>
       <c r="C50">
-        <v>-0.01416192276073143</v>
+        <v>0.01260146420898388</v>
       </c>
       <c r="D50">
-        <v>0.0240665671509546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02654336211103117</v>
+      </c>
+      <c r="E50">
+        <v>-0.02977885890491909</v>
+      </c>
+      <c r="F50">
+        <v>-0.01065251632180849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1522768853386914</v>
+        <v>-0.1457178861053919</v>
       </c>
       <c r="C52">
-        <v>-0.02314979430058752</v>
+        <v>0.0203414765409516</v>
       </c>
       <c r="D52">
-        <v>0.04144025927166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04415637810656828</v>
+      </c>
+      <c r="E52">
+        <v>-0.02665620881468065</v>
+      </c>
+      <c r="F52">
+        <v>-0.04006190331829167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1744480017897292</v>
+        <v>-0.167801976839503</v>
       </c>
       <c r="C53">
-        <v>-0.02551118761245362</v>
+        <v>0.02419555905113021</v>
       </c>
       <c r="D53">
-        <v>0.005598081489690666</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.008140979231604596</v>
+      </c>
+      <c r="E53">
+        <v>-0.03260741769585052</v>
+      </c>
+      <c r="F53">
+        <v>-0.07376705791878982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01500929082344883</v>
+        <v>-0.01782744573242951</v>
       </c>
       <c r="C54">
-        <v>-0.01181450514254792</v>
+        <v>0.01089884889619653</v>
       </c>
       <c r="D54">
-        <v>0.0300349329224131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0289750554743231</v>
+      </c>
+      <c r="E54">
+        <v>-0.02072170282387237</v>
+      </c>
+      <c r="F54">
+        <v>0.004621144905495779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1178421916289175</v>
+        <v>-0.1155927013592176</v>
       </c>
       <c r="C55">
-        <v>-0.02191276709566142</v>
+        <v>0.02092533277652139</v>
       </c>
       <c r="D55">
-        <v>0.003501410952353243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01093055300847779</v>
+      </c>
+      <c r="E55">
+        <v>-0.03167218970411829</v>
+      </c>
+      <c r="F55">
+        <v>-0.04542979741173318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1803182864059747</v>
+        <v>-0.1749117210616603</v>
       </c>
       <c r="C56">
-        <v>-0.02351725042949513</v>
+        <v>0.02253085991252958</v>
       </c>
       <c r="D56">
-        <v>-0.005427711794416646</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0003659729601338418</v>
+      </c>
+      <c r="E56">
+        <v>-0.03378229877289257</v>
+      </c>
+      <c r="F56">
+        <v>-0.05463274219859844</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04534256829357052</v>
+        <v>-0.04469790633394094</v>
       </c>
       <c r="C58">
-        <v>-0.004616712756009715</v>
+        <v>-1.569262013052366e-05</v>
       </c>
       <c r="D58">
-        <v>0.06711161338758202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0768352794096066</v>
+      </c>
+      <c r="E58">
+        <v>-0.03861938665771955</v>
+      </c>
+      <c r="F58">
+        <v>0.03177078245200888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1641911112924372</v>
+        <v>-0.1704286898482549</v>
       </c>
       <c r="C59">
-        <v>-0.02182151033381755</v>
+        <v>0.02744325661870494</v>
       </c>
       <c r="D59">
-        <v>-0.2194117691455573</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2148593918556358</v>
+      </c>
+      <c r="E59">
+        <v>0.05220383944471455</v>
+      </c>
+      <c r="F59">
+        <v>0.04086900304247593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2359480614220547</v>
+        <v>-0.2282500056209382</v>
       </c>
       <c r="C60">
-        <v>-0.007746652546952759</v>
+        <v>0.003409552874898822</v>
       </c>
       <c r="D60">
-        <v>0.03927933768422729</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04012621356554629</v>
+      </c>
+      <c r="E60">
+        <v>0.004457100333473673</v>
+      </c>
+      <c r="F60">
+        <v>-0.006396394812313668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07818401807543676</v>
+        <v>-0.07277466045080103</v>
       </c>
       <c r="C61">
-        <v>-0.01692918070494464</v>
+        <v>0.01113390467027744</v>
       </c>
       <c r="D61">
-        <v>0.1129656828309002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1183810188388471</v>
+      </c>
+      <c r="E61">
+        <v>-0.04380619423968801</v>
+      </c>
+      <c r="F61">
+        <v>-0.009832445199233061</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1718684522291186</v>
+        <v>-0.1676756064153998</v>
       </c>
       <c r="C62">
-        <v>-0.02683868979376396</v>
+        <v>0.0248206092968723</v>
       </c>
       <c r="D62">
-        <v>0.001763022177396774</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.00918422844718895</v>
+      </c>
+      <c r="E62">
+        <v>-0.0368412370501445</v>
+      </c>
+      <c r="F62">
+        <v>-0.04007830731763946</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04340744303002076</v>
+        <v>-0.04742360180788579</v>
       </c>
       <c r="C63">
-        <v>-0.006208801643659055</v>
+        <v>0.003097718956569414</v>
       </c>
       <c r="D63">
-        <v>0.05395505634542629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06357573002180801</v>
+      </c>
+      <c r="E63">
+        <v>-0.02512924895056138</v>
+      </c>
+      <c r="F63">
+        <v>-0.002301191482460769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1146487006494315</v>
+        <v>-0.1116798613872997</v>
       </c>
       <c r="C64">
-        <v>-0.01880920106726797</v>
+        <v>0.01502575928687602</v>
       </c>
       <c r="D64">
-        <v>0.03678820961610751</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04359247556836095</v>
+      </c>
+      <c r="E64">
+        <v>-0.0274475671028773</v>
+      </c>
+      <c r="F64">
+        <v>-0.02740163935106169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1481587866394402</v>
+        <v>-0.1551662062050717</v>
       </c>
       <c r="C65">
-        <v>-0.03978396630179947</v>
+        <v>0.03901209331485818</v>
       </c>
       <c r="D65">
-        <v>-0.04975118196572451</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03963959959821736</v>
+      </c>
+      <c r="E65">
+        <v>-0.006774446308892024</v>
+      </c>
+      <c r="F65">
+        <v>-0.03963265595706826</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1290321234818153</v>
+        <v>-0.1157697943934348</v>
       </c>
       <c r="C66">
-        <v>-0.02183363971260022</v>
+        <v>0.01460696092301859</v>
       </c>
       <c r="D66">
-        <v>0.1354308120124876</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1427274595237258</v>
+      </c>
+      <c r="E66">
+        <v>-0.06800753175193963</v>
+      </c>
+      <c r="F66">
+        <v>-0.02749119404122011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06168778583305958</v>
+        <v>-0.0546924762787079</v>
       </c>
       <c r="C67">
-        <v>-0.006792779096649162</v>
+        <v>0.004253644961839971</v>
       </c>
       <c r="D67">
-        <v>0.05352461079549204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05743598197149517</v>
+      </c>
+      <c r="E67">
+        <v>-0.02469507961191165</v>
+      </c>
+      <c r="F67">
+        <v>0.03575614551493447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1128178049979086</v>
+        <v>-0.1214079382308828</v>
       </c>
       <c r="C68">
-        <v>-0.02983053682964779</v>
+        <v>0.03759005149376841</v>
       </c>
       <c r="D68">
-        <v>-0.2618191920722389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2580224221790927</v>
+      </c>
+      <c r="E68">
+        <v>0.08592162739758108</v>
+      </c>
+      <c r="F68">
+        <v>-0.002348715761618605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03945308654645077</v>
+        <v>-0.03900039847643232</v>
       </c>
       <c r="C69">
-        <v>-0.003045684396856562</v>
+        <v>0.001974317459290245</v>
       </c>
       <c r="D69">
-        <v>0.01044871801466598</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01104358637427271</v>
+      </c>
+      <c r="E69">
+        <v>-0.02848885253055153</v>
+      </c>
+      <c r="F69">
+        <v>0.0005160532101172949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06901521429948794</v>
+        <v>-0.06872679849399446</v>
       </c>
       <c r="C70">
-        <v>0.02290976214668787</v>
+        <v>-0.02534109708266159</v>
       </c>
       <c r="D70">
-        <v>0.02763452784842404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03182567776920892</v>
+      </c>
+      <c r="E70">
+        <v>0.02748630017840565</v>
+      </c>
+      <c r="F70">
+        <v>0.1863856370078869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1313453494037079</v>
+        <v>-0.1416204961273314</v>
       </c>
       <c r="C71">
-        <v>-0.03486785496544239</v>
+        <v>0.04258733941154248</v>
       </c>
       <c r="D71">
-        <v>-0.2765148168140754</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2677331180838887</v>
+      </c>
+      <c r="E71">
+        <v>0.0971025843084498</v>
+      </c>
+      <c r="F71">
+        <v>-0.006952404670442763</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1377283413998476</v>
+        <v>-0.1441450853753015</v>
       </c>
       <c r="C72">
-        <v>-0.03128710635701019</v>
+        <v>0.03097352495605674</v>
       </c>
       <c r="D72">
-        <v>0.00263409067291975</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00038680762061632</v>
+      </c>
+      <c r="E72">
+        <v>-0.03953876781076449</v>
+      </c>
+      <c r="F72">
+        <v>-0.03034307496141562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1999533458330031</v>
+        <v>-0.202527857055185</v>
       </c>
       <c r="C73">
-        <v>-0.02075499963719774</v>
+        <v>0.01651845503729897</v>
       </c>
       <c r="D73">
-        <v>0.01125110665006609</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01877808481369463</v>
+      </c>
+      <c r="E73">
+        <v>-0.06305196550906213</v>
+      </c>
+      <c r="F73">
+        <v>-0.04027011374628542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08772237236682325</v>
+        <v>-0.08877614655285378</v>
       </c>
       <c r="C74">
-        <v>-0.01517970442905793</v>
+        <v>0.01408426148239253</v>
       </c>
       <c r="D74">
-        <v>0.01292628451460522</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01675384476313519</v>
+      </c>
+      <c r="E74">
+        <v>-0.04457424193102223</v>
+      </c>
+      <c r="F74">
+        <v>-0.05096759962677067</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1318322174938461</v>
+        <v>-0.1240454508917996</v>
       </c>
       <c r="C75">
-        <v>-0.03378921241463126</v>
+        <v>0.03120998453719425</v>
       </c>
       <c r="D75">
-        <v>0.02498907172251141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03172341415537484</v>
+      </c>
+      <c r="E75">
+        <v>-0.05919057969446766</v>
+      </c>
+      <c r="F75">
+        <v>-0.0212758305796384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08096170092845888</v>
+        <v>-0.09214294512177058</v>
       </c>
       <c r="C77">
-        <v>-0.01539330540036466</v>
+        <v>0.01010616511937307</v>
       </c>
       <c r="D77">
-        <v>0.1179664666632304</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1204413954073463</v>
+      </c>
+      <c r="E77">
+        <v>-0.04458293010494332</v>
+      </c>
+      <c r="F77">
+        <v>-0.03517118902334147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.098777739830644</v>
+        <v>-0.09952167079614579</v>
       </c>
       <c r="C78">
-        <v>-0.0458337110647369</v>
+        <v>0.04132320654365234</v>
       </c>
       <c r="D78">
-        <v>0.1143604191255545</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.112023297663013</v>
+      </c>
+      <c r="E78">
+        <v>-0.07322659883103384</v>
+      </c>
+      <c r="F78">
+        <v>-0.0511639778023574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1695426178280827</v>
+        <v>-0.1649654332207415</v>
       </c>
       <c r="C79">
-        <v>-0.03046859646463403</v>
+        <v>0.02819847181306522</v>
       </c>
       <c r="D79">
-        <v>0.01064294252439253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01750796256076769</v>
+      </c>
+      <c r="E79">
+        <v>-0.04861996614973745</v>
+      </c>
+      <c r="F79">
+        <v>-0.01354792021748081</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07948881268038376</v>
+        <v>-0.07828939594981803</v>
       </c>
       <c r="C80">
-        <v>-0.003701844328227997</v>
+        <v>0.0008651789555609511</v>
       </c>
       <c r="D80">
-        <v>0.05233095350643543</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05202444341814951</v>
+      </c>
+      <c r="E80">
+        <v>-0.03700886724839424</v>
+      </c>
+      <c r="F80">
+        <v>0.02949867810546996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1182898083938186</v>
+        <v>-0.1130678556017424</v>
       </c>
       <c r="C81">
-        <v>-0.03536337524465466</v>
+        <v>0.03405730601589167</v>
       </c>
       <c r="D81">
-        <v>0.006275746811925185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01205320978159694</v>
+      </c>
+      <c r="E81">
+        <v>-0.05390584182985539</v>
+      </c>
+      <c r="F81">
+        <v>-0.01708135817358788</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1638225737877717</v>
+        <v>-0.1622371654474414</v>
       </c>
       <c r="C82">
-        <v>-0.02962888187901963</v>
+        <v>0.02905573484724499</v>
       </c>
       <c r="D82">
-        <v>0.005320462968271082</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004009020317987025</v>
+      </c>
+      <c r="E82">
+        <v>-0.02913587038209675</v>
+      </c>
+      <c r="F82">
+        <v>-0.08157897237414005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05870734040139827</v>
+        <v>-0.05326961691928946</v>
       </c>
       <c r="C83">
-        <v>-0.005861296208883</v>
+        <v>0.00358128421624643</v>
       </c>
       <c r="D83">
-        <v>0.03832947016662207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04046039325176561</v>
+      </c>
+      <c r="E83">
+        <v>0.004653208108888316</v>
+      </c>
+      <c r="F83">
+        <v>0.03519179831770165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05964835028392525</v>
+        <v>-0.05506320338109698</v>
       </c>
       <c r="C84">
-        <v>-0.01418400828242767</v>
+        <v>0.0110790856660479</v>
       </c>
       <c r="D84">
-        <v>0.07692644157315627</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07823944597283683</v>
+      </c>
+      <c r="E84">
+        <v>-0.01365941194691565</v>
+      </c>
+      <c r="F84">
+        <v>-0.01672262512853921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397272756521976</v>
+        <v>-0.1346825884804716</v>
       </c>
       <c r="C85">
-        <v>-0.03342102238062627</v>
+        <v>0.03202039547717594</v>
       </c>
       <c r="D85">
-        <v>0.007557097104387954</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01114351015432223</v>
+      </c>
+      <c r="E85">
+        <v>-0.04170650212841095</v>
+      </c>
+      <c r="F85">
+        <v>-0.04846287134355184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1004041666949194</v>
+        <v>-0.09296965717210756</v>
       </c>
       <c r="C86">
-        <v>0.001025162384252532</v>
+        <v>-0.004728569931334921</v>
       </c>
       <c r="D86">
-        <v>0.02170959860212449</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0570951603627769</v>
+      </c>
+      <c r="E86">
+        <v>-0.2152290711922913</v>
+      </c>
+      <c r="F86">
+        <v>0.8974498746397347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09496141919065292</v>
+        <v>-0.0917314954911792</v>
       </c>
       <c r="C87">
-        <v>-0.02985877426321208</v>
+        <v>0.02171805846775175</v>
       </c>
       <c r="D87">
-        <v>0.07304933033411558</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09029027730184302</v>
+      </c>
+      <c r="E87">
+        <v>0.06450062420235028</v>
+      </c>
+      <c r="F87">
+        <v>-0.05093582173731444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06258883721144548</v>
+        <v>-0.06126365666944371</v>
       </c>
       <c r="C88">
-        <v>-0.006762190337323925</v>
+        <v>0.003683371934397965</v>
       </c>
       <c r="D88">
-        <v>0.05076883588365049</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05119916154526854</v>
+      </c>
+      <c r="E88">
+        <v>-0.02757868498565752</v>
+      </c>
+      <c r="F88">
+        <v>-0.01445858968410989</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1229158820941412</v>
+        <v>-0.1310855171638615</v>
       </c>
       <c r="C89">
-        <v>-0.01040379605879541</v>
+        <v>0.01767481502294336</v>
       </c>
       <c r="D89">
-        <v>-0.2378390707258194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2403503575625941</v>
+      </c>
+      <c r="E89">
+        <v>0.08658309629711733</v>
+      </c>
+      <c r="F89">
+        <v>0.007352639548787897</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1422753995623467</v>
+        <v>-0.1563831583116616</v>
       </c>
       <c r="C90">
-        <v>-0.03086980474611581</v>
+        <v>0.03935198834893881</v>
       </c>
       <c r="D90">
-        <v>-0.2626762113153339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2654542131330228</v>
+      </c>
+      <c r="E90">
+        <v>0.1163809610221446</v>
+      </c>
+      <c r="F90">
+        <v>0.007041898361554049</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1243477047739052</v>
+        <v>-0.1210015463078777</v>
       </c>
       <c r="C91">
-        <v>-0.02436824281868787</v>
+        <v>0.02364812275696945</v>
       </c>
       <c r="D91">
-        <v>-0.01888607476712375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01369231427332178</v>
+      </c>
+      <c r="E91">
+        <v>-0.0569983441248603</v>
+      </c>
+      <c r="F91">
+        <v>0.003309842103508908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1438144933225224</v>
+        <v>-0.1497958009886921</v>
       </c>
       <c r="C92">
-        <v>-0.02195333042338314</v>
+        <v>0.03043896890994293</v>
       </c>
       <c r="D92">
-        <v>-0.2914447167913473</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2904157647827543</v>
+      </c>
+      <c r="E92">
+        <v>0.1030441745655148</v>
+      </c>
+      <c r="F92">
+        <v>0.02216008920446926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1474284210978886</v>
+        <v>-0.1592970931271133</v>
       </c>
       <c r="C93">
-        <v>-0.02752947715046087</v>
+        <v>0.03458265264030424</v>
       </c>
       <c r="D93">
-        <v>-0.2596259154463472</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2585821936438909</v>
+      </c>
+      <c r="E93">
+        <v>0.07228281485338728</v>
+      </c>
+      <c r="F93">
+        <v>-0.005224813812401679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1311851689661214</v>
+        <v>-0.1236095886945256</v>
       </c>
       <c r="C94">
-        <v>-0.03002116388536573</v>
+        <v>0.02684156409915653</v>
       </c>
       <c r="D94">
-        <v>0.04048247176568711</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0446157119788119</v>
+      </c>
+      <c r="E94">
+        <v>-0.05923179939636309</v>
+      </c>
+      <c r="F94">
+        <v>-0.03152370763567691</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1264041646884859</v>
+        <v>-0.1283084931195194</v>
       </c>
       <c r="C95">
-        <v>-0.01222097851185064</v>
+        <v>0.006652445181027418</v>
       </c>
       <c r="D95">
-        <v>0.09039406421657162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1013299695135362</v>
+      </c>
+      <c r="E95">
+        <v>-0.06064360914510263</v>
+      </c>
+      <c r="F95">
+        <v>-0.004780749008347965</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1463560952946314</v>
+        <v>-0.1349655975295825</v>
       </c>
       <c r="C96">
-        <v>0.9834582053640974</v>
+        <v>-0.9839499596521364</v>
       </c>
       <c r="D96">
-        <v>-0.02535248115932496</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05469843954555111</v>
+      </c>
+      <c r="E96">
+        <v>-0.04995595043269438</v>
+      </c>
+      <c r="F96">
+        <v>-0.04175693498167551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1898768589301132</v>
+        <v>-0.1932325432221524</v>
       </c>
       <c r="C97">
-        <v>-0.0005517790644520599</v>
+        <v>-0.000591232615414818</v>
       </c>
       <c r="D97">
-        <v>-0.02556311359397338</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02815587994927992</v>
+      </c>
+      <c r="E97">
+        <v>-0.02741073138772255</v>
+      </c>
+      <c r="F97">
+        <v>0.1119003809199629</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1965653160667352</v>
+        <v>-0.202916973649628</v>
       </c>
       <c r="C98">
-        <v>-0.01530518697514853</v>
+        <v>0.01074876174267703</v>
       </c>
       <c r="D98">
-        <v>0.008679530919553476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01115796895340723</v>
+      </c>
+      <c r="E98">
+        <v>0.07404059757188973</v>
+      </c>
+      <c r="F98">
+        <v>0.1009971423476293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05634387782917773</v>
+        <v>-0.05590206663877328</v>
       </c>
       <c r="C99">
-        <v>0.001007740607802417</v>
+        <v>-0.003102679706919115</v>
       </c>
       <c r="D99">
-        <v>0.03824680990003807</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04334264075889561</v>
+      </c>
+      <c r="E99">
+        <v>-0.02387330030534588</v>
+      </c>
+      <c r="F99">
+        <v>-0.004405042469741566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1448950838952948</v>
+        <v>-0.1315493010584574</v>
       </c>
       <c r="C100">
-        <v>0.03582692547318968</v>
+        <v>-0.04805582124170562</v>
       </c>
       <c r="D100">
-        <v>0.3972509372324928</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3593865581763662</v>
+      </c>
+      <c r="E100">
+        <v>0.8834589993530447</v>
+      </c>
+      <c r="F100">
+        <v>0.1409122948824675</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02524115570475458</v>
+        <v>-0.02776868486374751</v>
       </c>
       <c r="C101">
-        <v>-0.009724301720710994</v>
+        <v>0.009032503768588176</v>
       </c>
       <c r="D101">
-        <v>0.03042351800586942</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03054793073126598</v>
+      </c>
+      <c r="E101">
+        <v>-0.01620150246964559</v>
+      </c>
+      <c r="F101">
+        <v>0.01478044768687715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
